--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.5419990116114</v>
+        <v>99.72348325655754</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.9376045436338</v>
+        <v>136.4460692811457</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.1589980749419</v>
+        <v>123.4238479322507</v>
       </c>
       <c r="AD2" t="n">
-        <v>82541.99901161139</v>
+        <v>99723.48325655755</v>
       </c>
       <c r="AE2" t="n">
-        <v>112937.6045436338</v>
+        <v>136446.0692811457</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.092025558747211e-06</v>
+        <v>1.022432087277542e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.285416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>102158.9980749419</v>
+        <v>123423.8479322507</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.3645132808836</v>
+        <v>98.54599752582976</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.3265166198486</v>
+        <v>134.8349813573606</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.7016701214262</v>
+        <v>121.966519978735</v>
       </c>
       <c r="AD3" t="n">
-        <v>81364.51328088361</v>
+        <v>98545.99752582976</v>
       </c>
       <c r="AE3" t="n">
-        <v>111326.5166198486</v>
+        <v>134834.9813573605</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.20610718105643e-06</v>
+        <v>1.038878828797496e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.216666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>100701.6701214262</v>
+        <v>121966.519978735</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.23000511468689</v>
+        <v>98.97960087867214</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.5107207296626</v>
+        <v>135.428256593949</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.7728554530408</v>
+        <v>122.5031738594107</v>
       </c>
       <c r="AD2" t="n">
-        <v>82230.00511468689</v>
+        <v>98979.60087867215</v>
       </c>
       <c r="AE2" t="n">
-        <v>112510.7207296626</v>
+        <v>135428.256593949</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.987986645056282e-06</v>
+        <v>1.023014956762218e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>101772.8554530408</v>
+        <v>122503.1738594107</v>
       </c>
     </row>
   </sheetData>
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.5394947805484</v>
+        <v>141.7561096372471</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.1909663520997</v>
+        <v>193.9569630437788</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.711688159951</v>
+        <v>175.4459827112427</v>
       </c>
       <c r="AD2" t="n">
-        <v>118539.4947805484</v>
+        <v>141756.109637247</v>
       </c>
       <c r="AE2" t="n">
-        <v>162190.9663520997</v>
+        <v>193956.9630437788</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.39973319060682e-06</v>
+        <v>8.3540537506771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.497916666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>146711.688159951</v>
+        <v>175445.9827112427</v>
       </c>
     </row>
   </sheetData>
@@ -2549,28 +2549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.37342157032212</v>
+        <v>122.2672259049633</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.5988553215213</v>
+        <v>167.2914125324122</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.7529294803512</v>
+        <v>151.3253549153373</v>
       </c>
       <c r="AD2" t="n">
-        <v>98373.42157032213</v>
+        <v>122267.2259049633</v>
       </c>
       <c r="AE2" t="n">
-        <v>134598.8553215213</v>
+        <v>167291.4125324122</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.19358769219575e-06</v>
+        <v>9.360331722216123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.41875</v>
       </c>
       <c r="AH2" t="n">
-        <v>121752.9294803512</v>
+        <v>151325.3549153373</v>
       </c>
     </row>
   </sheetData>
@@ -2846,28 +2846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.8536695662547</v>
+        <v>183.4770460428167</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.5634253102301</v>
+        <v>251.0413888316619</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.517372087705</v>
+        <v>227.0823510204432</v>
       </c>
       <c r="AD2" t="n">
-        <v>145853.6695662547</v>
+        <v>183477.0460428167</v>
       </c>
       <c r="AE2" t="n">
-        <v>199563.4253102301</v>
+        <v>251041.3888316619</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.572336315249863e-06</v>
+        <v>7.226522634059432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>180517.3720877049</v>
+        <v>227082.3510204433</v>
       </c>
     </row>
   </sheetData>
@@ -3143,28 +3143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.17848401747626</v>
+        <v>99.04159797633611</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4402272915086</v>
+        <v>135.5130837580918</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.7090898096861</v>
+        <v>122.5799052380633</v>
       </c>
       <c r="AD2" t="n">
-        <v>82178.48401747626</v>
+        <v>99041.59797633611</v>
       </c>
       <c r="AE2" t="n">
-        <v>112440.2272915087</v>
+        <v>135513.0837580918</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.029905878314302e-06</v>
+        <v>1.024880339231156e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.433333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>101709.0898096861</v>
+        <v>122579.9052380633</v>
       </c>
     </row>
     <row r="3">
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.97413151175434</v>
+        <v>98.83724547061418</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.1606231777838</v>
+        <v>135.2334796443669</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.4561707201482</v>
+        <v>122.3269861485254</v>
       </c>
       <c r="AD3" t="n">
-        <v>81974.13151175434</v>
+        <v>98837.24547061417</v>
       </c>
       <c r="AE3" t="n">
-        <v>112160.6231777838</v>
+        <v>135233.4796443669</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.063556819141056e-06</v>
+        <v>1.029786263755175e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.410416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>101456.1707201482</v>
+        <v>122326.9861485254</v>
       </c>
     </row>
   </sheetData>
@@ -3546,28 +3546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.0521971913188</v>
+        <v>217.0584148959451</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.3553595393772</v>
+        <v>296.9888992019235</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.8435497869292</v>
+        <v>268.6446954887175</v>
       </c>
       <c r="AD2" t="n">
-        <v>180052.1971913188</v>
+        <v>217058.4148959451</v>
       </c>
       <c r="AE2" t="n">
-        <v>246355.3595393772</v>
+        <v>296988.8992019235</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.022007130799745e-06</v>
+        <v>6.444200183677003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>222843.5497869292</v>
+        <v>268644.6954887175</v>
       </c>
     </row>
   </sheetData>
@@ -3843,28 +3843,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.5325730063699</v>
+        <v>109.1468706177166</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.6611957011878</v>
+        <v>149.3395635991867</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.622653515004</v>
+        <v>135.0868052487149</v>
       </c>
       <c r="AD2" t="n">
-        <v>84532.5730063699</v>
+        <v>109146.8706177166</v>
       </c>
       <c r="AE2" t="n">
-        <v>115661.1957011878</v>
+        <v>149339.5635991867</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.702069335790709e-06</v>
+        <v>9.951522059938875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>104622.653515004</v>
+        <v>135086.8052487149</v>
       </c>
     </row>
   </sheetData>
@@ -4140,28 +4140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.30257295948056</v>
+        <v>108.2927504698487</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.9782553732623</v>
+        <v>148.1709187317528</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.1003306499537</v>
+        <v>134.0296942072252</v>
       </c>
       <c r="AD2" t="n">
-        <v>83302.57295948056</v>
+        <v>108292.7504698487</v>
       </c>
       <c r="AE2" t="n">
-        <v>113978.2553732623</v>
+        <v>148170.9187317528</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.869409875698071e-06</v>
+        <v>1.010107208786438e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.620833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>103100.3306499537</v>
+        <v>134029.6942072252</v>
       </c>
     </row>
     <row r="3">
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.17166529372494</v>
+        <v>99.97401839158975</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.7991417297369</v>
+        <v>136.7888625057267</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.9383113611787</v>
+        <v>123.7339254525911</v>
       </c>
       <c r="AD3" t="n">
-        <v>83171.66529372495</v>
+        <v>99974.01839158975</v>
       </c>
       <c r="AE3" t="n">
-        <v>113799.1417297369</v>
+        <v>136788.8625057267</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.897442065033366e-06</v>
+        <v>1.014229180984635e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.602083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>102938.3113611787</v>
+        <v>123733.9254525911</v>
       </c>
     </row>
   </sheetData>
@@ -4543,28 +4543,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.04311438200803</v>
+        <v>99.12185345264557</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.2550085841743</v>
+        <v>135.6228928414</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.5415481158236</v>
+        <v>122.6792342965787</v>
       </c>
       <c r="AD2" t="n">
-        <v>82043.11438200803</v>
+        <v>99121.85345264556</v>
       </c>
       <c r="AE2" t="n">
-        <v>112255.0085841743</v>
+        <v>135622.8928414001</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.105192478136329e-06</v>
+        <v>1.027959713193375e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>101541.5481158236</v>
+        <v>122679.2342965787</v>
       </c>
     </row>
     <row r="3">
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.34241459064684</v>
+        <v>98.42115366128436</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.2962802169413</v>
+        <v>134.6641644741671</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.6743194383753</v>
+        <v>121.8120056191304</v>
       </c>
       <c r="AD3" t="n">
-        <v>81342.41459064683</v>
+        <v>98421.15366128436</v>
       </c>
       <c r="AE3" t="n">
-        <v>111296.2802169413</v>
+        <v>134664.164474167</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.179305997093668e-06</v>
+        <v>1.038682253353345e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>100674.3194383753</v>
+        <v>121812.0056191304</v>
       </c>
     </row>
   </sheetData>
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.06206854326021</v>
+        <v>112.2537765182089</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.4363601401978</v>
+        <v>153.5905693192527</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.8922584005424</v>
+        <v>138.9321009491831</v>
       </c>
       <c r="AD2" t="n">
-        <v>96062.0685432602</v>
+        <v>112253.7765182089</v>
       </c>
       <c r="AE2" t="n">
-        <v>131436.3601401979</v>
+        <v>153590.5693192527</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.387473663419973e-06</v>
+        <v>9.591970922910347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.189583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>118892.2584005424</v>
+        <v>138932.1009491831</v>
       </c>
     </row>
   </sheetData>
@@ -5243,28 +5243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.2885895939592</v>
+        <v>136.7779142241796</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.0064462222244</v>
+        <v>187.1455764571418</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.2128485477314</v>
+        <v>169.2846653005911</v>
       </c>
       <c r="AD2" t="n">
-        <v>113288.5895939592</v>
+        <v>136777.9142241796</v>
       </c>
       <c r="AE2" t="n">
-        <v>155006.4462222244</v>
+        <v>187145.5764571418</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.704910785552281e-06</v>
+        <v>8.749888370001109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.052083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>140212.8485477314</v>
+        <v>169284.6653005912</v>
       </c>
     </row>
   </sheetData>
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.1190253508173</v>
+        <v>157.1238951296422</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.507567398711</v>
+        <v>214.9838451333099</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.993862720718</v>
+        <v>194.46608868557</v>
       </c>
       <c r="AD2" t="n">
-        <v>134119.0253508172</v>
+        <v>157123.8951296422</v>
       </c>
       <c r="AE2" t="n">
-        <v>183507.567398711</v>
+        <v>214983.8451333099</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.024458660276304e-06</v>
+        <v>7.850617547397958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.108333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>165993.862720718</v>
+        <v>194466.0886855701</v>
       </c>
     </row>
   </sheetData>
@@ -8658,28 +8658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.4391872195533</v>
+        <v>273.1897241745443</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.9288180962017</v>
+        <v>373.7902328956359</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.9678922990566</v>
+        <v>338.1162176859625</v>
       </c>
       <c r="AD2" t="n">
-        <v>229439.1872195533</v>
+        <v>273189.7241745443</v>
       </c>
       <c r="AE2" t="n">
-        <v>313928.8180962017</v>
+        <v>373790.2328956359</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.326373691256555e-06</v>
+        <v>5.420911814398002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.52291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>283967.8922990566</v>
+        <v>338116.2176859624</v>
       </c>
     </row>
   </sheetData>
@@ -8955,28 +8955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.8875051641409</v>
+        <v>108.6937512272325</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.7785854210658</v>
+        <v>148.7195856589099</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.8242783212653</v>
+        <v>134.5259971329135</v>
       </c>
       <c r="AD2" t="n">
-        <v>83887.50516414091</v>
+        <v>108693.7512272325</v>
       </c>
       <c r="AE2" t="n">
-        <v>114778.5854210658</v>
+        <v>148719.58565891</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.788886572651638e-06</v>
+        <v>1.002977070818612e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.720833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>103824.2783212653</v>
+        <v>134525.9971329135</v>
       </c>
     </row>
     <row r="3">
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.75497538019007</v>
+        <v>108.5612214432817</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.5972523238629</v>
+        <v>148.5382525617071</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.6602514003569</v>
+        <v>134.361970212005</v>
       </c>
       <c r="AD3" t="n">
-        <v>83754.97538019008</v>
+        <v>108561.2214432817</v>
       </c>
       <c r="AE3" t="n">
-        <v>114597.2523238629</v>
+        <v>148538.2525617071</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.815967645990563e-06</v>
+        <v>1.006977976610958e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.702083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>103660.2514003569</v>
+        <v>134361.970212005</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.24089234741766</v>
+        <v>99.21360668281014</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.5256171217956</v>
+        <v>135.748433658778</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.7863301544159</v>
+        <v>122.7927936745438</v>
       </c>
       <c r="AD2" t="n">
-        <v>82240.89234741766</v>
+        <v>99213.60668281013</v>
       </c>
       <c r="AE2" t="n">
-        <v>112525.6171217956</v>
+        <v>135748.433658778</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.056941948553005e-06</v>
+        <v>1.024787244277991e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.377083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>101786.3301544159</v>
+        <v>122792.7936745438</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.59759032084699</v>
+        <v>98.57030465623946</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.6454229085597</v>
+        <v>134.868239445542</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.9901404415306</v>
+        <v>121.9966039616584</v>
       </c>
       <c r="AD3" t="n">
-        <v>81597.590320847</v>
+        <v>98570.30465623946</v>
       </c>
       <c r="AE3" t="n">
-        <v>111645.4229085597</v>
+        <v>134868.239445542</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.126334074281516e-06</v>
+        <v>1.034864153769147e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.335416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>100990.1404415306</v>
+        <v>121996.6039616584</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.6070520516876</v>
+        <v>397.4471124677559</v>
       </c>
       <c r="AB2" t="n">
-        <v>466.0335951397378</v>
+        <v>543.80467340749</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.5560029018592</v>
+        <v>491.9047186121311</v>
       </c>
       <c r="AD2" t="n">
-        <v>340607.0520516876</v>
+        <v>397447.1124677559</v>
       </c>
       <c r="AE2" t="n">
-        <v>466033.5951397378</v>
+        <v>543804.67340749</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.436981126568171e-06</v>
+        <v>4.062302344988739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>421556.0029018592</v>
+        <v>491904.7186121311</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.4518642632457</v>
+        <v>125.279487190693</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.8109164252838</v>
+        <v>171.4129213151344</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.5629973840368</v>
+        <v>155.0535126844117</v>
       </c>
       <c r="AD2" t="n">
-        <v>101451.8642632457</v>
+        <v>125279.487190693</v>
       </c>
       <c r="AE2" t="n">
-        <v>138810.9164252838</v>
+        <v>171412.9213151344</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.962726876542755e-06</v>
+        <v>9.074713516929217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.70625</v>
       </c>
       <c r="AH2" t="n">
-        <v>125562.9973840368</v>
+        <v>155053.5126844117</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.08186811967687</v>
+        <v>110.4951907241985</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.7810096252898</v>
+        <v>151.1843946525591</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.540155373368</v>
+        <v>136.7555682155907</v>
       </c>
       <c r="AD2" t="n">
-        <v>86081.86811967687</v>
+        <v>110495.1907241985</v>
       </c>
       <c r="AE2" t="n">
-        <v>117781.0096252898</v>
+        <v>151184.3946525591</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.550210116243937e-06</v>
+        <v>9.77887873062742e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>106540.155373368</v>
+        <v>136755.5682155907</v>
       </c>
     </row>
   </sheetData>
